--- a/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_+50%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_+50%.xlsx
@@ -69975,6 +69975,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>13.365</v>
+      </c>
       <c r="C2" t="n">
         <v>447.8972222222222</v>
       </c>
@@ -70030,6 +70033,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>13.274</v>
+      </c>
       <c r="C3" t="n">
         <v>458.4355555555555</v>
       </c>
@@ -70085,6 +70091,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>14.42166666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>444.2455555555555</v>
       </c>
@@ -70140,6 +70149,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>12.69916666666667</v>
+      </c>
       <c r="C5" t="n">
         <v>431.0872222222222</v>
       </c>
@@ -70195,6 +70207,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.756</v>
+      </c>
       <c r="C6" t="n">
         <v>441.3105555555555</v>
       </c>
@@ -70250,6 +70265,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>13.86916666666667</v>
+      </c>
       <c r="C7" t="n">
         <v>462.6044444444445</v>
       </c>
@@ -70305,6 +70323,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>14.02</v>
+      </c>
       <c r="C8" t="n">
         <v>465.0133333333333</v>
       </c>
@@ -70360,6 +70381,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>13.485</v>
+      </c>
       <c r="C9" t="n">
         <v>440.1116666666667</v>
       </c>
@@ -70415,6 +70439,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>12.43816666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>445.5644444444445</v>
       </c>
@@ -70470,6 +70497,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>14.2315</v>
+      </c>
       <c r="C11" t="n">
         <v>446.9133333333333</v>
       </c>
@@ -70525,6 +70555,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>12.91533333333333</v>
+      </c>
       <c r="C12" t="n">
         <v>430.2411111111111</v>
       </c>
@@ -70580,6 +70613,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>12.98616666666667</v>
+      </c>
       <c r="C13" t="n">
         <v>440.3033333333334</v>
       </c>
@@ -70635,6 +70671,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.227</v>
+      </c>
       <c r="C14" t="n">
         <v>427.5422222222222</v>
       </c>
@@ -70690,6 +70729,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.628</v>
+      </c>
       <c r="C15" t="n">
         <v>440.8727777777777</v>
       </c>
@@ -70745,6 +70787,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>13.687</v>
+      </c>
       <c r="C16" t="n">
         <v>428.4177777777777</v>
       </c>
@@ -70800,6 +70845,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.726</v>
+      </c>
       <c r="C17" t="n">
         <v>433.38</v>
       </c>
@@ -70855,6 +70903,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>12.5415</v>
+      </c>
       <c r="C18" t="n">
         <v>427.0177777777778</v>
       </c>
@@ -70910,6 +70961,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>12.27266666666667</v>
+      </c>
       <c r="C19" t="n">
         <v>434.0833333333334</v>
       </c>
@@ -70965,6 +71019,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>12.74116666666667</v>
+      </c>
       <c r="C20" t="n">
         <v>422.2844444444445</v>
       </c>
@@ -71020,6 +71077,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>12.6085</v>
+      </c>
       <c r="C21" t="n">
         <v>435.7472222222223</v>
       </c>
@@ -71075,6 +71135,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>12.77016666666667</v>
+      </c>
       <c r="C22" t="n">
         <v>440.5683333333333</v>
       </c>
@@ -71130,6 +71193,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>12.87066666666667</v>
+      </c>
       <c r="C23" t="n">
         <v>420.3772222222223</v>
       </c>
@@ -71185,6 +71251,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.26866666666667</v>
+      </c>
       <c r="C24" t="n">
         <v>448.5672222222222</v>
       </c>
@@ -71240,6 +71309,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.0295</v>
+      </c>
       <c r="C25" t="n">
         <v>428.4127777777778</v>
       </c>
@@ -71295,6 +71367,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>13.82133333333333</v>
+      </c>
       <c r="C26" t="n">
         <v>452.7422222222222</v>
       </c>
@@ -71350,6 +71425,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.93733333333333</v>
+      </c>
       <c r="C27" t="n">
         <v>419.2511111111111</v>
       </c>
@@ -71405,6 +71483,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>12.25066666666667</v>
+      </c>
       <c r="C28" t="n">
         <v>430.14</v>
       </c>
@@ -71460,6 +71541,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.98183333333333</v>
+      </c>
       <c r="C29" t="n">
         <v>427.2322222222222</v>
       </c>
@@ -71515,6 +71599,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>14.2535</v>
+      </c>
       <c r="C30" t="n">
         <v>431.2472222222222</v>
       </c>
@@ -71569,6 +71656,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>14.90966666666667</v>
       </c>
       <c r="C31" t="n">
         <v>453.5655555555555</v>
